--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/39_Isparta_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/39_Isparta_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B177A91F-0FC5-4823-8A52-4C83ECA77050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF2ADC8D-AE35-4A7F-B30E-18E2143B04FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{6CFA7553-DFA7-4AA9-8169-6B093B6671AA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" xr2:uid="{479B5C53-A68B-4A8F-B44A-D22E817A2564}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -937,13 +937,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{1A48CE74-3E43-4BA6-9B0B-B3B9F13F2D52}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2C3B7461-48A4-4A4B-ACD3-86941EEA07F7}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{CBBECCB3-8D49-4353-86FE-B977AB8B49C6}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{1444F903-C258-4CA8-8BDF-1B2E9D9AF028}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{62DB4B2F-B5BB-4E2C-A88D-8B1D79E83CBA}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{99EE50CB-79F4-4F17-959E-0227C4C71E46}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{0554349F-4DF0-4EFA-B1B9-9C44F837FCB1}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6AD3ACBF-976A-47EA-8548-F10C67E5FED5}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A3A869C9-CE71-41D3-873D-DF758ECF4AC8}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{794A7473-E648-4337-BE78-ECDAB578E3C8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{82D61FFD-216F-413C-913E-E652753CB749}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{CF594896-6540-4032-B512-15C27AE5B111}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{555C12BF-86F4-46C1-B476-A827FDEC9CED}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{5673AF22-8F8E-4F34-AF4F-EBFC80751A7C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1313,7 +1313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158CA338-4409-46E3-962B-63108DFEAC0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D4A151-D104-4E04-B0D7-55D892D64989}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2570,18 +2570,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CE491BB7-3B52-404E-AD0E-76F7B86B7447}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{50334852-271A-4830-BAA9-485F2B158D02}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{690C8B90-C211-4E61-B93F-0001DFA3BDBF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C96039C6-4501-4DF2-9F4D-C840B254AFBC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4F69D391-1D31-4EFB-B39D-B6111EDE9205}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E07F0A48-56BD-4CC6-A7AF-DB18D60815E0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCCB875D-C842-42EA-94CB-DD3568996E23}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BBDB7F0C-5005-4B1D-A8F0-3A15E55D6189}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E484E3AE-AB28-47AD-B3C5-F51FEE8DF5A1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{129ADABF-1660-4FE1-A13F-A0455E240651}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B4B3E739-78BC-4EBC-AAFA-D29B93D3DF33}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AED7D366-157E-43F2-AB56-95B6A009F4DD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB403C81-BA74-4960-B25F-E5C0F44C3D10}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6CB98C63-61C6-42A4-AF4A-E86C69304085}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9A1054E5-AAB8-4EC6-9ABE-FA12687C9556}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{80D7320F-BDFB-4A86-896F-908EE769C6B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9FF3D821-F600-49B1-98EA-1559EFA9F35A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F17C266-72E8-4362-AAB5-F2A4C0313749}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CD14754A-321D-4804-B681-42377137B9EE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9D689850-5F4C-47BC-B171-6D6128FA9AF1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A57F517F-B564-4754-ACF4-EAC25D044F18}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3A7A558-D33F-4B0B-8B16-D59135D22467}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{489CA4B6-2D2A-478E-9D89-636682AC1536}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EB486482-6EB3-488D-A06D-07EC8F729150}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2594,7 +2594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A8D085-46A0-4A7C-8CDC-803F4EB7EC3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14F7AFC4-F830-4B00-AEEE-0C362FEBB1AE}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3840,18 +3840,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1AF47840-71E5-41F0-963A-0D37947E7B72}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{412C86B4-D581-4BBE-8869-A36097B389F5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F9732932-9D50-4D3A-B454-86F3E2CAF8CA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9E0D1167-0E84-4BAA-AA26-E49E0D911311}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1C9FD24C-3C56-4532-943E-E21BAD1B1683}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8883FCD-C279-48F7-BCC5-C8E7E664F98C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{510B8BA9-4851-42FB-B2F6-FE5D71F90C28}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8CB1811-F993-470A-8867-D6C8385E104F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB7C201B-BC0F-4036-8965-1666BE0CE79C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{08433D22-2BCF-4BF8-9A61-28F446A0DD82}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{075352DB-47F1-4700-8AC0-1F31F397E2E6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1451989-F856-4485-85BF-0702C67375BA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6BF6A1F-20BB-4883-87DA-37181280D529}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E83768B7-14F5-42F3-9E9F-82444EF325AB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{93050A89-AEBE-415A-B297-F03E1E3A710F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A50ED9C6-A4F2-404E-A3A7-C65CB2555BD8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85A565B9-4CFD-4EEC-9D37-09D5C4FD556B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9744F659-7167-4AC1-9CBF-2D0C686A2E59}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{072AE1CA-A141-48D4-A66F-AF8F14CFE11E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6ECF87B5-2145-40D2-BBB8-0CD886F6B7CD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BD2FD23-6319-470B-930F-397AD85E1346}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A7ECA622-E93D-464F-8ED0-465CD769B86D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AFCC2579-C9EA-499D-8347-B5972E9EFFF6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{596ABA33-2DC6-4C04-8A18-56D0DC916FC4}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3864,7 +3864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B29C9D-0AE5-41EF-9950-FCD9BB392AEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EEA916-37CE-45CE-A3C5-097ED3019747}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5106,18 +5106,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D23FC1F9-23A5-4447-9702-C8AA8EF58839}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD5E2D88-51A3-414B-8933-0E8C541B03D9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A20EBC50-EB1E-45EF-80E5-43B4543B3987}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5F947842-6ADC-4CFE-9B64-FFA916A01021}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED225ABF-1CBA-47AF-BD3F-99BBFBBD9AED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1C9A141-E1D4-4814-B70D-0C7D74D8C416}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1500D9E2-AA68-409B-8260-EFE835BFE6AE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB1F19F0-589F-46B6-B14A-59A5F81D840B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F0750A9B-335F-4E42-9CA6-93271BAE0EF0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E74430CD-3800-4F85-A308-531AA81F4343}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A10F895C-D056-4819-8FE5-B45C937C83AD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2E32E0F-5E82-4267-93E5-4AC07B40AFF7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1B5A4F1-ECE4-4968-9D81-E9A10B8634B9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B0F0C92-0B44-4441-8669-0385B863D35E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{56C5AD81-D378-4B8A-BAE5-4818CA46886E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3F434685-D558-4590-AB7D-E89177467D43}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B179F014-EFFE-4B33-B0F3-ED3385ED76E0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0CC0B881-A505-4DA0-BA2D-BF29C29C7576}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CEACE5E6-3AF9-4E49-94B8-FFB22548C43B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6D7E10E-EC52-4FC3-B547-0E36E5CB4DFC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{93285584-D4D8-415F-A6CF-422944E5C689}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E8985B88-418C-4E0B-9F9F-0338B6292BBF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DD1614D0-C5CA-44D0-A115-4E6DBA81DF11}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D3807FD5-21AE-4280-A3A6-A7010A8C3EE1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5130,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74310C59-5368-4F48-823C-15C277AE3DAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C7D7A20-E3A8-4FBF-A0AD-4754543B0B58}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6364,18 +6364,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5336968D-0096-4D4B-90C3-0274FF05E7C9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2E96C420-1088-4052-9E9D-314D020003D7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{822AA935-D7B9-4AF6-906C-5D4F0E82A9F0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8198EDD7-795E-483C-8679-A2798812B5AE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0B6FC065-2C61-4FA3-A7F3-2B8EFA586830}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{88937710-7C82-4680-A120-91CA9758EE70}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{43BDA377-5077-4085-9064-6DDC79AB55C5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{78C62CAD-69FB-4B95-921B-E3A2AD7520A7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B16EB63E-2434-4103-9FE6-412CEC2E7950}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6A704451-DF27-47D1-95EE-037F9F94D2AD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C9D0772C-5863-4003-BDE3-F441753F9EE0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7070BDB5-1F4B-4F08-B0F3-C113866DB62E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BCA789E8-4087-4363-95F4-580C38993C58}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F8E6CE1-2319-455B-B353-6483602C346C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1472BC15-77BE-40D4-85B5-E8B764614009}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FC643701-7F77-464D-A028-9EB4FF1A060F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2523569D-2EC4-4993-B0E1-50183D40CC5F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6246BB34-CC16-47BB-83AF-D731F03DC97C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{24D05DED-759D-405B-A44C-47B626F77BA7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0D75ABD3-1857-423F-979A-453954FD44E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D70D1FB0-A51A-47FD-8C54-0DF8EB86A90F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{594FAD92-21DB-463E-924C-A1C3AD28C1DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95DA3F59-6261-49CD-B9F9-37AA65CFDE99}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C3451DF-2887-494F-A2DA-62BD97D9DC16}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6388,7 +6388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC973FC6-15A6-4381-8953-1F505DC05070}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF74C3CC-B68C-4D22-8D1A-53F556670F04}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7645,18 +7645,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0FD63137-F74F-4163-B58F-630987AC5B46}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40086E79-B5F3-4600-8F48-9A88752CBABF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E980874F-EBDE-4E35-AFCE-6273AD52866C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{02181904-6C6C-4188-8299-AE7D8A3A8C40}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DBD523ED-64AA-4F28-9F85-08B20AAAD2BE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2211CC0F-308F-47B6-95C7-E95466DFF754}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5EEB4314-BB61-43B2-A05B-EA04C699BCCF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5121F15A-A75D-4888-BB89-B498DD0F9E1A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BB7E8F93-6351-49CD-A307-91F27C0040D1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{68BC659B-2C89-4F0A-868D-6DDC07FD9E94}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F979479E-EC66-4BA5-B6E8-97F6BCED189E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4FD46135-AD16-43BF-87C1-C105069681D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2590AADB-A5D6-48AB-886B-FF21D3017381}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{02D6FD76-C585-470A-9DDE-9B4D6A5D1789}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8DDFA1D7-9355-4E4C-B59A-6D3593AE8BB1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FF0436A2-0871-487C-BD3D-412D17E4BA3A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{311256CC-C735-458B-A4AE-3E604ACA97AD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E53562E6-F765-441B-88DF-C7E6DB28F95B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{434B977C-5C1F-4265-B6B7-273040B34C1E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{25A8399C-F102-47A9-82C6-41D721B516CB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BD878AFF-D8D6-4B38-BE57-80C9AEB75109}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6638E865-3CA3-4836-BCE2-BFCD9705B8D8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB3E4E8A-7093-40C1-9AF3-D15BD1070EC5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8C1DD6C2-57AD-44DA-98C5-D34576BB9B96}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7669,7 +7669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF44623-CB1B-4B51-91A8-3970E9A5DB8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47885ED3-5BE3-4BEC-96E3-FCB791C1469A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8926,18 +8926,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C6BB0550-137E-4D3E-BA90-ACD64150E26B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AC02D93D-A3B2-471F-9F24-3856F5374292}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E1C07BBC-FEBD-4FF0-9842-17B365D10A94}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{768CF1F9-81B8-4B43-8D7D-C51A148BC922}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1A0C4FE7-808E-4F62-9C8C-C4B472366018}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EFC6BBFF-C43B-4C42-89F1-62AE8E2F0886}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7661E60-9493-46C1-BAF2-F138115A4072}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D812D157-05FE-4951-BC48-A55344F359E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5151AEA5-0982-4F62-B2BB-5FF473E27801}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69831802-F031-4886-A5EE-2B9F9614E536}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B134A732-D303-4E9A-A4E7-41A09A84C17F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{168942FB-1697-4D3B-89B2-35743216BEEE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8682FE5B-DEBD-4F0B-BDA0-8E2EC406B72B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F2E94D83-4F08-4216-8881-7BC522CD67EE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6A6C17A7-0AD7-4FA4-8129-5681658C6803}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{35CF4B66-AE00-4DCF-9DCE-BE02885DA87A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D8E4811-7B72-4B2A-A92E-DC573CBC25CF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B4522B98-E2AC-4C5A-BC27-D0391631BEA8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{355557F0-6864-4A20-ADFE-31D0402AD90E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7D5C29EC-62E1-483D-8BDD-FDE35A939F0D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9329AAFA-1594-4215-80A6-D283C0D06A00}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{748D47C2-FE1D-4A67-9E92-20EBC7279991}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82A36C83-8366-44E9-A215-CE3164AA196F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0D07AD94-FF9C-4B5D-9E6B-571A40771F15}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8950,7 +8950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB471FE-6039-4FBE-AA28-618F8C2FDF95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA16A1BE-4C75-4E0B-8C65-F534E7E53D1A}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10207,18 +10207,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D51887DE-32C2-4E79-AC9B-01DB3C8ACC1C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5972E7F-B902-46DE-BD03-466B3D1A74F9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CF60B328-59C8-46BE-81A0-90DACE58BA68}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{62886102-B9A5-4BA9-962E-C9918D3695AE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7143A45D-948D-4149-A7BB-49CFFDEEA4C8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0C21E510-F6F8-454F-A670-3D10EBE6A30E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{56F86C96-AFC1-4DE6-9FE3-7BEBD76A9095}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B35D1D38-BE52-481C-8B2D-78CB759668EB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8D371FF-9651-44B2-B54E-6469CE4541BD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7CA5B7D1-1FED-4D8E-9F43-734C87D2B61C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3E5F2B18-805D-4C63-88E8-35DB52C79F40}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F91D8893-331B-4BC5-8822-E53E0EA5ED69}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78D80570-5B56-44E7-8822-9925C44B7EF2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1CB741A4-86AA-4447-AF66-85B3EA8615DC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{937969C7-09C5-4FC7-81A2-3F5BE544221F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E18A6F75-CA4F-4E38-AA96-2E89A36F8A05}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A09D57A8-064D-4916-B5C2-4E6E66BA0311}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA7FA9AA-C806-4A99-A470-8F57ECC217C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B051F0EA-DAEA-440E-A7D6-1FB2019B03BD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F4CB8F0-3DA3-4329-B91E-EA313B9EBFA7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35191A5C-6C68-4393-B869-0C8A693D13AE}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C57757DC-4AA2-4A43-AD52-DADDDF6E0D30}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{70E1E726-C5F4-44CE-91ED-5A227E7A642B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2FD426E-6435-4B0B-A223-A1E47ACF041D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10231,7 +10231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BD2942-D254-4A5F-915E-DC9CD65157B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22C40BD6-8628-45A8-AA57-F334F55C67A7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11488,18 +11488,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{296AC8A4-9E4D-4611-81DB-3ADF684E75CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0775D021-49F2-4032-B9F8-B081F95C3BC2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A8DD2335-F919-4D9F-A0AE-661DAE35D759}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{21884BBA-EDBA-46B5-97B6-03183B2FAE6F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9FA3502C-2A0E-4D80-9BB5-ED5B3A58AA50}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{51BCEF16-8935-456F-8C8C-C075671568E7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C04FFF39-9C46-4A26-B054-95B7A07C130D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2F8C4DFE-DF3D-47F4-8C22-FDCFE1F275CD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{356D6D7F-AD63-46A0-A8D8-4CE0046FF203}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B8AECF45-8FF8-4893-8763-F9AFE5C4E9A3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E68D0E95-495F-4F64-BADE-F549FC906F1E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A85D7BAE-15D4-47AC-A10F-1C3A879A4E47}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7B4114A8-D06A-4160-B081-73E0CCE999E2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{705D8643-F9DD-4527-BCB8-28D255A6F58E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{96CCC301-CA1F-4E6D-8D59-5C86C9FD2E14}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5A7AB21E-6931-4ED3-A0D6-D7DBDC69364E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C6148FDF-3A66-4C02-BCD7-E1B8B39E6972}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{32954219-ECDA-412A-A496-8499E7FF7F95}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DE656C17-EC70-40E0-9A55-DEFD9266966A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E762F61A-E12B-43F8-87CC-58679CFF8AA0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{904589C2-6497-4D95-B96A-2912F7B8DC3A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1A482724-527F-494D-A95E-E02776AF47BA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0E802536-4FFA-484A-ADB6-B9BBC0C2A9AE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6FDA0050-08C8-474B-B258-D54E1660033F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11512,7 +11512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B14089-23F5-4CCA-8D2A-3957D8B963BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8FDB90-1286-4A77-BBDE-C2C3514206BD}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12761,18 +12761,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{48C618C9-16DE-4949-90E2-CCC26D41F02A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E9AD9A15-FD72-4FC3-A8B9-CB48CEEFB787}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{213C4F4D-6978-4729-A820-18A029E22359}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E253ADF2-8AF2-4C72-87F3-EE56740E8144}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{283D8062-C145-40BA-B105-88148307B735}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6B5FDF09-9E1B-461A-A817-F7F6261A094E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{39287273-2CD2-4980-8DDC-563061728F58}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{730E0A79-F888-4248-B644-7793E2EE88BF}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB63B5EA-1B85-418C-9F28-71E50AAF196F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B358E25A-9EE8-4DDE-B641-CBFC6FEA7723}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{875B70E1-26ED-4F19-AC89-34987996FE70}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F3471A4F-5DC3-4B88-A755-C19AE362E70C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{716B7C41-A52D-42CE-B331-71DB16B1C331}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D117A60-88E8-48DC-A2B5-1031264D495C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8B489E40-963A-4199-B721-2BEF099C3AA6}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A668211F-8771-4364-A6FB-96C7D4BE9DB2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C9F956A4-9F1E-4B0E-B9D8-FB201AB410A3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{65121178-E9B7-4AA1-8348-CBA4A2856A4D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{157144FF-F0FE-4388-BEF4-221DC34387B5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2D503450-BBDF-459A-A03C-544E78B2EE4B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF196C3A-5660-4AE7-ADEA-A9EC5838C6AD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{090A4F39-29C9-4797-BA7B-7ACE88ACD943}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{811B0084-AA09-425C-B4C0-06F0E3241C2D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8A21EEB4-F574-4697-A002-386AF234D092}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12785,7 +12785,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E68DE9-914C-4DEA-A1DF-F1DF8359733D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D935D80E-C719-45B1-9E3A-7ADC1A3405D7}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14035,18 +14035,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A9DB4B67-4DBF-47B9-8D61-E7E620DB1A98}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9A70E3F-ECD3-49E1-A346-DB60ED6BAF99}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EC02EA5F-B084-49C8-80BB-5D2A2790A5EF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{459F60BC-289C-4F6F-AE7B-2F6A43E666D4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0ECFED11-0083-49A0-8B3B-1B03A45024EF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8CC81DCB-3EB2-4542-BF35-DA1BCBBFE007}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{84E71467-41DA-4E78-AAD4-0D8AFF992C4E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57BA42B5-F02A-4891-B773-49884F7F48E8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76F814A8-0203-469F-B617-585DC80ECFF9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0B78DE29-610A-4253-91FF-CB0BB0A553E2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4B2CE848-F27D-4F8E-9286-A223D1328464}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{502D1141-3A0E-42A9-9414-D1700DB92AD6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD053FC2-29E9-47A1-B899-D5CECDEABA4A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EBAF9D38-C4D7-4C8E-A331-EBBF15300022}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8761A847-C9C7-44E6-A9F3-F709AD81FA6C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{79F7A6B4-151B-4BE9-990B-DA3C4BBCE34D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D0ADBCCA-10D6-4E95-BF07-5DF89FB288A0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4E175413-3A70-45E3-B514-5F011B67FF8C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D038B653-7E03-4E82-9CE8-1E3C7E5EE5CD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B0B3EA8-25B5-4685-9BB9-69F64EE26ABD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{45F0BB5A-3B20-44CD-AAC2-9E4AF0F40384}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1172A4FD-DA2E-414E-84B6-637527EED7EC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8FAE839A-2A1F-4A65-96AB-45FA33F2E3DC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E59C3F13-FC9F-4C71-8006-9E680D400633}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14059,7 +14059,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642FDEF9-5765-442A-A06B-AE9D4AE4E376}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A41D79-DEAD-4666-A637-9CDC6D3754F2}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15305,18 +15305,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D24FFBB-B447-4F0E-BDE5-CF904FFE3233}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5F422561-54A8-4A68-BE26-9170D126969B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AE6C4F6E-3CE9-4637-A963-22F38CDDC968}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{42BDEE70-DFAB-41A7-8ACA-48CD511F3689}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B4805D01-75BB-495E-994B-F31F043A8852}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F141CD7D-BD71-474B-B07D-F855A6C8512F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{714D3646-8E1F-4D51-90BB-07FD13E50DF3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{24B09B8D-1FC2-4799-A39B-9AB92ABC5AF0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{98972BFD-2051-4074-8B39-46B9692ED57B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2758669E-A033-43A1-8EB1-7461A1732586}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1CD9813-8A26-4383-9EFC-4A9F66155FC4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{922019AD-786B-4F2F-89CD-0A2B70466A24}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FEC288A2-85E2-4A6D-A33F-BAC43C2C26C3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB4C05AE-2C5B-4AEE-9800-EA6E2CFC09B0}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DCE04F90-7FB8-4B9B-8138-84DD25EF8AC9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E7553394-555C-4CA3-AFE5-6788AFF2004F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F0A5AAF9-81AC-4D74-8530-870F0C088101}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E17C8E53-4645-4227-A4A7-25EA18B3EB82}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F7FA86F3-01DB-4B5C-BCCF-6770B7F718D9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F4E69943-B27C-41F5-9888-7FA91EDA27DB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B1CDEB98-D6EB-43C9-A0A8-F220BC6081C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DD471AD1-A278-4BE0-9C83-12B763ED19FF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{047B6A16-8F4C-4E00-B895-494FB515E28A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7C096E4-0531-43A9-87AC-8BA69D0408DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15329,7 +15329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60408118-0C6E-4F30-94DD-C1562D16171E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66FAC6D-5E6E-499B-8741-D4E68DF6BEFE}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16575,18 +16575,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A2ABDAC5-B72F-4A3C-925F-97D36DD926FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F75B7B2-50B9-4F59-8EA0-8C0D4D3AC9E5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F8B4FE10-E6D5-41CA-8F7A-215F888D256C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8E343973-5BB8-42EF-81A5-51D87C13A6C3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{11B4CEA1-2D9F-43E1-8788-80091CBF928B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F3A5F4DC-43EF-49C0-8FED-0EE775CBA298}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4ABC36ED-1242-4E11-9071-0BD6E0619022}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B89E0388-C8F3-4515-AA88-E752EA4714A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BE1C877-7703-4C99-AE7F-06AB753E5673}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44115D90-6CEA-49C5-ABF7-E63D5F050BD4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E4FAF88A-6DA3-412D-9C6A-8CCF03CB87E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{710971A3-D8D4-4AB1-85A5-004C54EE6A3B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA3B3FD8-FBB1-4830-8ED0-F16004091714}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5D67AC3B-1DA1-4F76-9966-A00D07D5457E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{089C1C96-EAD9-454A-8205-96C5F04FF515}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0E218740-511F-4299-BA76-227EC8C8C10E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{56C64803-10FA-4FF4-9BB9-EA4226AD0FAE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FCC76CBE-2383-46F9-8DA3-FB7CFF23B570}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4A759345-940D-4B9F-868B-1D3D9E0A8ED6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{88539D16-80DA-40DA-84C1-45D09FFB76FC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{78882BBE-943C-4A50-BF40-583D732DD4DD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EE95A76E-094F-47B9-80C2-659C2AE595CF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB38E9DA-A79C-472A-B231-648005BE394F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC00AB50-5878-4CC2-93B3-56E07E444570}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
